--- a/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
+++ b/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\kd visual novel\Assets\One Room 자료\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1E388B9B-2ADE-42A5-A8BE-9D16552759B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE79A08-AE3E-4A5A-A565-F7527D69D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueDataFile" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,11 +1091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
+++ b/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\kd visual novel\Assets\One Room 자료\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE79A08-AE3E-4A5A-A565-F7527D69D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F63CE27-AB95-4CAE-BD56-C9ECD75F5BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
-  <si>
-    <t>Talk Index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>캐릭터 이름</t>
   </si>
@@ -140,6 +137,26 @@
   </si>
   <si>
     <t>뭐야 완전 모르는 눈빛이잖아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉란 첫인사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>심심한 봉란</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴상한 도구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1092,15 +1109,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -1110,246 +1127,222 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F22" t="s">
         <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
+++ b/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\kd visual novel\Assets\One Room 자료\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F63CE27-AB95-4CAE-BD56-C9ECD75F5BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF976FBD-047C-4AA2-8538-AE202B54611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1222,9 +1222,6 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -1233,6 +1230,11 @@
       </c>
       <c r="D10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1268,14 +1270,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1338,11 +1342,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
       <c r="C27" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
+++ b/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\kd visual novel\Assets\One Room 자료\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF976FBD-047C-4AA2-8538-AE202B54611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC556816-16BC-4DBE-BC69-3CD27DADA56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>캐릭터 이름</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>내가 1번째 분신</t>
-  </si>
-  <si>
-    <t>⒳봉란2</t>
   </si>
   <si>
     <t>내가 2번째 분신이다 !!</t>
@@ -157,6 +154,22 @@
   </si>
   <si>
     <t>end</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>⒳봉란2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 닫혀있음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>⒳문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ굳게 잠겨있다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1109,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1127,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1147,7 +1160,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1234,12 +1247,12 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1271,26 +1284,26 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1298,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1306,25 +1319,25 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
         <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1332,23 +1345,39 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
+++ b/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\kd visual novel\Assets\One Room 자료\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC556816-16BC-4DBE-BC69-3CD27DADA56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2B678E-EF4B-4BC9-A4BB-71C76AA63560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>캐릭터 이름</t>
   </si>
@@ -170,6 +170,38 @@
   </si>
   <si>
     <t>ⓒ굳게 잠겨있다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴상한 도구After</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉란</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 저거의 정체를 알아낸 거 같아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래? 뭔데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 저건 바로</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>…...............</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감통이야!! 저기에 담겨있는 액체는 \n빨간색 물감인거지!!!</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1122,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1364,19 +1396,64 @@
         <v>42</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
+++ b/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\kd visual novel\Assets\One Room 자료\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2B678E-EF4B-4BC9-A4BB-71C76AA63560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F663EC20-A8D2-4080-91B1-A4F6610DAAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
-  <si>
-    <t>캐릭터 이름</t>
-  </si>
-  <si>
-    <t>대사</t>
-  </si>
-  <si>
-    <t>sprite name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>VoiceName</t>
   </si>
@@ -203,6 +194,21 @@
   <si>
     <t>물감통이야!! 저기에 담겨있는 액체는 \n빨간색 물감인거지!!!</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이름, 대화 조건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사, 조건 확인 미확인 여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite name, 퇴장 조건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉란 첫인사</t>
   </si>
 </sst>
 </file>
@@ -1156,305 +1162,311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" customWidth="1"/>
     <col min="6" max="6" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
       <c r="C38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
+++ b/Assets/One Room 자료/Resources/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\kd visual novel\Assets\One Room 자료\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F663EC20-A8D2-4080-91B1-A4F6610DAAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AC36E-7332-4FF3-A1B8-5816124F0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
